--- a/artfynd/A 18960-2021.xlsx
+++ b/artfynd/A 18960-2021.xlsx
@@ -1631,10 +1631,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>521882.888911092</v>
+        <v>521883</v>
       </c>
       <c r="R9" t="n">
-        <v>6280673.818818642</v>
+        <v>6280674</v>
       </c>
       <c r="S9" t="n">
         <v>50</v>
